--- a/biology/Zoologie/Colpophyllia_natans/Colpophyllia_natans.xlsx
+++ b/biology/Zoologie/Colpophyllia_natans/Colpophyllia_natans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colpophyllia natans est une espèce de coraux de la famille des Faviidae selon ITIS[3] et selon WoRMS[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colpophyllia natans est une espèce de coraux de la famille des Faviidae selon ITIS et selon WoRMS.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce corail se trouve en Atlantique tropical Ouest, entre autres aux Bahamas, Mexique et Barbade[5]. Il se rencontre entre 1 et 50 m de profondeur mais n'est abondant qu'entre 7 et 30 m.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce corail se trouve en Atlantique tropical Ouest, entre autres aux Bahamas, Mexique et Barbade. Il se rencontre entre 1 et 50 m de profondeur mais n'est abondant qu'entre 7 et 30 m.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Houttuyn, 1772 : Natuurlyke historie of uitvoerige beschryving der dieren, planten en mineralen, volgens het samenstel van den heer Linnaeus met naauwheurige afdeelingen. vol. 1737, n. 1-6, pp. 1-614.</t>
         </is>
